--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1798.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1798.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156800847798694</v>
+        <v>0.7354065775871277</v>
       </c>
       <c r="B1">
-        <v>2.277118673507033</v>
+        <v>1.57258939743042</v>
       </c>
       <c r="C1">
-        <v>4.607309367300558</v>
+        <v>4.823458671569824</v>
       </c>
       <c r="D1">
-        <v>2.770415940810877</v>
+        <v>2.408813714981079</v>
       </c>
       <c r="E1">
-        <v>1.147054671202947</v>
+        <v>1.050973057746887</v>
       </c>
     </row>
   </sheetData>
